--- a/Bugs List.xlsx
+++ b/Bugs List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerryw.wang\Documents\MeteringDisplay\RK3588\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vmshare\RK3588\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B29BF2-DE5B-492D-93BB-CF68A7129A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90F04C3-E481-4185-9141-296D94CAD4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug. 24, 2025" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,38 +50,6 @@
   </si>
   <si>
     <t>深度倒计，语音播报延时比较大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>历史曲线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轴方向无法放大，要求整改，增加横向滚动进度条</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -313,6 +284,49 @@
   </si>
   <si>
     <t>Fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>历史曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轴方向无法放大，要求整改，</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加横向滚动进度条</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +384,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,7 +618,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,26 +900,26 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="124.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" hidden="1">
+    <row r="2" spans="1:3" ht="16.5" hidden="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -905,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" hidden="1">
+    <row r="3" spans="1:3" ht="16.5" hidden="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -916,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" hidden="1">
+    <row r="4" spans="1:3" ht="16.5" hidden="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -927,67 +949,69 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="16.5" hidden="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="75">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1">
+    <row r="8" spans="1:3" ht="16.5" hidden="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" hidden="1">
+    <row r="9" spans="1:3" ht="16.5" hidden="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" hidden="1" thickBot="1">
+    <row r="10" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1001,5 +1025,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>